--- a/Results/Summary/Power_results.xlsx
+++ b/Results/Summary/Power_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,20 +385,25 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>convergence_issue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>VE_hat</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>bias_VE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>mean_n_event</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>power</t>
         </is>
@@ -425,15 +430,18 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>0.5862627471692425</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.01373725283075741</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>170.213</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.973</v>
       </c>
     </row>
@@ -458,16 +466,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-386231282563.125</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>-386231282563.725</v>
+        <v>0.4037718904406687</v>
       </c>
       <c r="H3">
+        <v>-0.1962281095593313</v>
+      </c>
+      <c r="I3">
         <v>16.785</v>
       </c>
-      <c r="I3">
-        <v>0.33</v>
+      <c r="J3">
+        <v>0.3316532258064516</v>
       </c>
     </row>
     <row r="4">
@@ -491,15 +502,18 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.515837755971901</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.08416224402809905</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>33.899</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.45</v>
       </c>
     </row>
@@ -524,15 +538,18 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.5484973701946584</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.05150262980534154</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>51.139</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.6</v>
       </c>
     </row>
@@ -557,15 +574,18 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.557445350939609</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.04255464906039099</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>67.97199999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.68</v>
       </c>
     </row>
@@ -590,15 +610,18 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.5645115183882515</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.03548848161174847</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>84.59699999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.762</v>
       </c>
     </row>
@@ -623,15 +646,18 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0.5781293340873153</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.02187066591268467</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>101.852</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.839</v>
       </c>
     </row>
@@ -656,15 +682,18 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0.5876388280186433</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.01236117198135672</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>118.484</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.889</v>
       </c>
     </row>
@@ -689,15 +718,18 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0.5822996095580063</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.01770039044199364</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>135.234</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.925</v>
       </c>
     </row>
@@ -722,15 +754,18 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.5865255094045884</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.01347449059541166</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>152.358</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.955</v>
       </c>
     </row>
@@ -755,15 +790,18 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0.5951663021892222</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.004833697810777779</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>170.213</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
@@ -788,16 +826,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-1359475.706705781</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>-1359476.306705781</v>
+        <v>0.5297546443041753</v>
       </c>
       <c r="H13">
+        <v>-0.07024535569582474</v>
+      </c>
+      <c r="I13">
         <v>16.785</v>
       </c>
-      <c r="I13">
-        <v>0.48</v>
+      <c r="J13">
+        <v>0.481444332998997</v>
       </c>
     </row>
     <row r="14">
@@ -821,15 +862,18 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>0.5671095980794354</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.03289040192056464</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>33.899</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.718</v>
       </c>
     </row>
@@ -854,15 +898,18 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0.574935240648823</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.025064759351177</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>51.139</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.853</v>
       </c>
     </row>
@@ -887,15 +934,18 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0.5846335722208698</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.01536642777913025</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>67.97199999999999</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.925</v>
       </c>
     </row>
@@ -920,15 +970,18 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>0.5907585799989211</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.009241420001078809</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>84.59699999999999</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.972</v>
       </c>
     </row>
@@ -953,15 +1006,18 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>0.5956767481994957</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.004323251800504252</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>101.852</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.99</v>
       </c>
     </row>
@@ -986,15 +1042,18 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>0.5954016731570646</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.004598326842935373</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>118.484</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.996</v>
       </c>
     </row>
@@ -1019,15 +1078,18 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>0.5955252136695006</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.004474786330499312</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>135.234</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.992</v>
       </c>
     </row>
@@ -1052,15 +1114,18 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>0.5949423703986122</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.00505762960138779</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>152.358</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1</v>
       </c>
     </row>
